--- a/uploads/sample_emp.xlsx
+++ b/uploads/sample_emp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCEC59-1F0A-4103-95E2-D7E192BED08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D81F54-5BD4-4BA1-8BEE-80E2CD66379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8E67168-08BE-4EAF-8798-56195BDAD5B3}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>DEPTNO</t>
   </si>
   <si>
-    <t>Raju</t>
-  </si>
-  <si>
-    <t>Vicky</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>trichy</t>
+  </si>
+  <si>
+    <t>Raju btg</t>
+  </si>
+  <si>
+    <t>Vicky gg</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,50 +448,50 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1234</v>
+        <v>2256744</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>8978675645</v>
+        <v>88905645</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3453</v>
+        <v>2233332</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>4533234532</v>
+        <v>4544532</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
